--- a/01-Bases de données/Conception Base de Donnees/Exercice zero fautes/DonneesZeosFautes.xlsx
+++ b/01-Bases de données/Conception Base de Donnees/Exercice zero fautes/DonneesZeosFautes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\59011-07-08\CDA\01-Bases de données\Passage MCD MLD\Exercice zero fautes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\59011-07-08\CDA\01-Bases de données\Conception Base de Donnees\Exercice zero fautes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Categories</t>
   </si>
@@ -57,13 +57,172 @@
   </si>
   <si>
     <t>Identifiant de la série</t>
+  </si>
+  <si>
+    <t>Modeles</t>
+  </si>
+  <si>
+    <t>Code du modèle</t>
+  </si>
+  <si>
+    <t>nom du modele</t>
+  </si>
+  <si>
+    <t>Date de mise sur le marché</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Iodentifiant de la série</t>
+  </si>
+  <si>
+    <t>Numéro de série</t>
+  </si>
+  <si>
+    <t>Fautes</t>
+  </si>
+  <si>
+    <t>Identifiant de la faute</t>
+  </si>
+  <si>
+    <t>Code de la faute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date de détection </t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>Date de réparation</t>
+  </si>
+  <si>
+    <t>Modele A1</t>
+  </si>
+  <si>
+    <t>Modele A2</t>
+  </si>
+  <si>
+    <t>Modele A3</t>
+  </si>
+  <si>
+    <t>Modele A4</t>
+  </si>
+  <si>
+    <t>Modele A5</t>
+  </si>
+  <si>
+    <t>Modele A6</t>
+  </si>
+  <si>
+    <t>Modele A7</t>
+  </si>
+  <si>
+    <t>Modele A8</t>
+  </si>
+  <si>
+    <t>Modele A9</t>
+  </si>
+  <si>
+    <t>Modele A10</t>
+  </si>
+  <si>
+    <t>bois</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>plastique</t>
+  </si>
+  <si>
+    <t>barre</t>
+  </si>
+  <si>
+    <t>plaque</t>
+  </si>
+  <si>
+    <t>cube</t>
+  </si>
+  <si>
+    <t>vis</t>
+  </si>
+  <si>
+    <t>Pièces de bois</t>
+  </si>
+  <si>
+    <t>Pièces de métal</t>
+  </si>
+  <si>
+    <t>Barres de bois</t>
+  </si>
+  <si>
+    <t>Plaques de bois</t>
+  </si>
+  <si>
+    <t>Cubes métalliques</t>
+  </si>
+  <si>
+    <t>Vis métalliques</t>
+  </si>
+  <si>
+    <t>Piéces de platiques</t>
+  </si>
+  <si>
+    <t>Identifiant du titre</t>
+  </si>
+  <si>
+    <t>Titres</t>
+  </si>
+  <si>
+    <t>Libelle du titre</t>
+  </si>
+  <si>
+    <t>Erreur de percage</t>
+  </si>
+  <si>
+    <t>Erreur de teinte</t>
+  </si>
+  <si>
+    <t>Erreur de filetage</t>
+  </si>
+  <si>
+    <t>Casse</t>
+  </si>
+  <si>
+    <t>Identifiant du produit</t>
+  </si>
+  <si>
+    <t>Longueur trop imprtante</t>
+  </si>
+  <si>
+    <t>Erreur de dimension</t>
+  </si>
+  <si>
+    <t>Largeur trop importante</t>
+  </si>
+  <si>
+    <t>Absence de percage</t>
+  </si>
+  <si>
+    <t>Mauvaise cote</t>
+  </si>
+  <si>
+    <t>Teinte trop foncée</t>
+  </si>
+  <si>
+    <t>Longueur incorrecte</t>
+  </si>
+  <si>
+    <t>Mauvais diamètre de percage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,8 +247,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +271,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,23 +363,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -199,7 +383,73 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -208,6 +458,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -482,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:N11"/>
+  <dimension ref="D3:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,157 +749,758 @@
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
     <col min="6" max="6" width="34.140625" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="54.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="12" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="J3" s="6" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="4:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="L5" s="2">
+        <v>568</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2019</v>
+      </c>
+      <c r="L6" s="2">
+        <v>956</v>
+      </c>
+      <c r="M6" s="2">
+        <v>9</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="J7" s="2">
+        <v>3</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="L7" s="2">
+        <v>768</v>
+      </c>
+      <c r="M7" s="2">
+        <v>8</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5">
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="J8" s="2">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="L8" s="2">
+        <v>986</v>
+      </c>
+      <c r="M8" s="2">
+        <v>4</v>
+      </c>
+      <c r="N8" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>5</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5">
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2020</v>
+      </c>
+      <c r="L9" s="2">
+        <v>159</v>
+      </c>
+      <c r="M9" s="2">
+        <v>6</v>
+      </c>
+      <c r="N9" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>6</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5">
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="2">
         <v>2</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="J10" s="2">
+        <v>6</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2021</v>
+      </c>
+      <c r="L10" s="2">
+        <v>357</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D11" s="5">
+      <c r="D11" s="2">
         <v>7</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5">
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="2">
         <v>2</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="J11" s="2">
+        <v>7</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2021</v>
+      </c>
+      <c r="L11" s="2">
+        <v>791</v>
+      </c>
+      <c r="M11" s="2">
+        <v>2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="J15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="4:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4569</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="26">
+        <v>43348</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>10256</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>9865</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="26">
+        <v>43381</v>
+      </c>
+      <c r="J18" s="7">
+        <v>2</v>
+      </c>
+      <c r="K18" s="7">
+        <v>40265</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1234</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="26">
+        <v>43414</v>
+      </c>
+      <c r="J19" s="7">
+        <v>3</v>
+      </c>
+      <c r="K19" s="7">
+        <v>60365</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="7">
+        <v>4</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4687</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="26">
+        <v>43446</v>
+      </c>
+      <c r="J20" s="7">
+        <v>4</v>
+      </c>
+      <c r="K20" s="7">
+        <v>95654</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="7">
+        <v>5</v>
+      </c>
+      <c r="E21" s="7">
+        <v>7354</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="26">
+        <v>43525</v>
+      </c>
+      <c r="J21" s="7">
+        <v>5</v>
+      </c>
+      <c r="K21" s="7">
+        <v>32145</v>
+      </c>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D22" s="7">
+        <v>6</v>
+      </c>
+      <c r="E22" s="7">
+        <v>3025</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="26">
+        <v>43532</v>
+      </c>
+      <c r="J22" s="7">
+        <v>6</v>
+      </c>
+      <c r="K22" s="7">
+        <v>65987</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D23" s="7">
+        <v>7</v>
+      </c>
+      <c r="E23" s="7">
+        <v>3095</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="26">
+        <v>43561</v>
+      </c>
+      <c r="J23" s="7">
+        <v>7</v>
+      </c>
+      <c r="K23" s="7">
+        <v>15648</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="7">
+        <v>8</v>
+      </c>
+      <c r="E24" s="7">
+        <v>8531</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="26">
+        <v>43661</v>
+      </c>
+      <c r="J24" s="7">
+        <v>8</v>
+      </c>
+      <c r="K24" s="7">
+        <v>78965</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="7">
+        <v>9</v>
+      </c>
+      <c r="E25" s="7">
+        <v>6912</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="26">
+        <v>43750</v>
+      </c>
+      <c r="J25" s="7">
+        <v>9</v>
+      </c>
+      <c r="K25" s="7">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D26" s="7">
+        <v>10</v>
+      </c>
+      <c r="E26" s="7">
+        <v>9235</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="26">
+        <v>44165</v>
+      </c>
+      <c r="J26" s="7">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7">
+        <v>65497</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D30" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
+    </row>
+    <row r="31" spans="4:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
+        <v>158</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="26">
+        <v>44147</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="26">
+        <v>44147</v>
+      </c>
+      <c r="J32" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="7">
+        <v>2</v>
+      </c>
+      <c r="E33" s="7">
+        <v>162</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="26">
+        <v>44148</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="26">
+        <v>44148</v>
+      </c>
+      <c r="J33" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="7">
+        <v>3</v>
+      </c>
+      <c r="E34" s="7">
+        <v>156</v>
+      </c>
+      <c r="F34" s="7">
+        <v>2</v>
+      </c>
+      <c r="G34" s="26">
+        <v>44179</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I34" s="26">
+        <v>44544</v>
+      </c>
+      <c r="J34" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="7">
+        <v>4</v>
+      </c>
+      <c r="E35" s="7">
+        <v>625</v>
+      </c>
+      <c r="F35" s="7">
+        <v>5</v>
+      </c>
+      <c r="G35" s="26">
+        <v>44199</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D36" s="7">
+        <v>5</v>
+      </c>
+      <c r="E36" s="7">
+        <v>236</v>
+      </c>
+      <c r="F36" s="7">
+        <v>4</v>
+      </c>
+      <c r="G36" s="26">
+        <v>44241</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="7">
+        <v>6</v>
+      </c>
+      <c r="E37" s="7">
+        <v>745</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1</v>
+      </c>
+      <c r="G37" s="26">
+        <v>44261</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I37" s="26">
+        <v>44261</v>
+      </c>
+      <c r="J37" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="7">
+        <v>7</v>
+      </c>
+      <c r="E38" s="7">
+        <v>456</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2</v>
+      </c>
+      <c r="G38" s="26">
+        <v>44328</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="7">
+        <v>8</v>
+      </c>
+      <c r="E39" s="7">
+        <v>357</v>
+      </c>
+      <c r="F39" s="7">
+        <v>2</v>
+      </c>
+      <c r="G39" s="26">
+        <v>44375</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="D43" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="28"/>
+    </row>
+    <row r="44" spans="4:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D46" s="7">
+        <v>2</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="7">
+        <v>3</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="7">
+        <v>4</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" s="7">
+        <v>5</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D30:J30"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="J3:N3"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="J15:K15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
